--- a/team_specific_matrix/Bowling Green_B.xlsx
+++ b/team_specific_matrix/Bowling Green_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2727272727272727</v>
+        <v>0.2568093385214008</v>
       </c>
       <c r="C2">
-        <v>0.4066985645933014</v>
+        <v>0.4280155642023346</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009569377990430622</v>
+        <v>0.01167315175097276</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.215311004784689</v>
+        <v>0.1867704280155642</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09569377990430622</v>
+        <v>0.1167315175097276</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04878048780487805</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8292682926829268</v>
+        <v>0.7981651376146789</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1219512195121951</v>
+        <v>0.1559633027522936</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0303030303030303</v>
+        <v>0.05</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5757575757575758</v>
+        <v>0.575</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3939393939393939</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03726708074534162</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0124223602484472</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08695652173913043</v>
+        <v>0.07943925233644859</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2173913043478261</v>
+        <v>0.205607476635514</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006211180124223602</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2298136645962733</v>
+        <v>0.2196261682242991</v>
       </c>
       <c r="R6">
-        <v>0.04968944099378882</v>
+        <v>0.07009345794392523</v>
       </c>
       <c r="S6">
-        <v>0.360248447204969</v>
+        <v>0.3504672897196262</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1149425287356322</v>
+        <v>0.1073170731707317</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01149425287356322</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05172413793103448</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1264367816091954</v>
+        <v>0.1073170731707317</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02298850574712644</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1609195402298851</v>
+        <v>0.1804878048780488</v>
       </c>
       <c r="R7">
-        <v>0.09770114942528736</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="S7">
-        <v>0.4137931034482759</v>
+        <v>0.4048780487804878</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08288770053475936</v>
+        <v>0.08078602620087336</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0213903743315508</v>
+        <v>0.01965065502183406</v>
       </c>
       <c r="E8">
-        <v>0.00267379679144385</v>
+        <v>0.002183406113537118</v>
       </c>
       <c r="F8">
-        <v>0.07754010695187166</v>
+        <v>0.08296943231441048</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1016042780748663</v>
+        <v>0.1026200873362445</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01871657754010695</v>
+        <v>0.02183406113537118</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1657754010695187</v>
+        <v>0.1703056768558952</v>
       </c>
       <c r="R8">
-        <v>0.09625668449197861</v>
+        <v>0.08296943231441048</v>
       </c>
       <c r="S8">
-        <v>0.4331550802139038</v>
+        <v>0.4366812227074236</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09154929577464789</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04929577464788732</v>
+        <v>0.05294117647058823</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09859154929577464</v>
+        <v>0.1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02112676056338028</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.147887323943662</v>
+        <v>0.1705882352941177</v>
       </c>
       <c r="R9">
-        <v>0.09859154929577464</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="S9">
-        <v>0.4929577464788732</v>
+        <v>0.4705882352941176</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08722741433021806</v>
+        <v>0.08892617449664429</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02284527518172378</v>
+        <v>0.02265100671140939</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0008389261744966443</v>
       </c>
       <c r="F10">
-        <v>0.06645898234683281</v>
+        <v>0.06963087248322147</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1069574247144341</v>
+        <v>0.1031879194630873</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01246105919003115</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2409138110072689</v>
+        <v>0.2298657718120805</v>
       </c>
       <c r="R10">
-        <v>0.0778816199376947</v>
+        <v>0.08053691275167785</v>
       </c>
       <c r="S10">
-        <v>0.3852544132917965</v>
+        <v>0.3909395973154363</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1684210526315789</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07719298245614035</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="K11">
-        <v>0.2035087719298246</v>
+        <v>0.2057142857142857</v>
       </c>
       <c r="L11">
-        <v>0.5333333333333333</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01754385964912281</v>
+        <v>0.01714285714285714</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7032258064516129</v>
+        <v>0.6753926701570681</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2193548387096774</v>
+        <v>0.2303664921465969</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="L12">
-        <v>0.01935483870967742</v>
+        <v>0.03141361256544502</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05806451612903226</v>
+        <v>0.04712041884816754</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2121212121212121</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1212121212121212</v>
+        <v>0.1219512195121951</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1987577639751553</v>
+        <v>0.1753554502369668</v>
       </c>
       <c r="I15">
-        <v>0.08695652173913043</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="J15">
-        <v>0.3043478260869565</v>
+        <v>0.3317535545023697</v>
       </c>
       <c r="K15">
-        <v>0.08695652173913043</v>
+        <v>0.0947867298578199</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0124223602484472</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03726708074534162</v>
+        <v>0.03317535545023697</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2732919254658385</v>
+        <v>0.2748815165876777</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01538461538461539</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1615384615384615</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="I16">
-        <v>0.09230769230769231</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="J16">
-        <v>0.3461538461538461</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K16">
-        <v>0.1461538461538462</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01538461538461539</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1846153846153846</v>
+        <v>0.1987179487179487</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01063829787234043</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1888297872340426</v>
+        <v>0.1921397379912664</v>
       </c>
       <c r="I17">
-        <v>0.0797872340425532</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="J17">
-        <v>0.4015957446808511</v>
+        <v>0.4039301310043668</v>
       </c>
       <c r="K17">
-        <v>0.1196808510638298</v>
+        <v>0.1200873362445415</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02127659574468085</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04787234042553191</v>
+        <v>0.05021834061135371</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1303191489361702</v>
+        <v>0.1244541484716157</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006666666666666667</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1933333333333333</v>
+        <v>0.1793478260869565</v>
       </c>
       <c r="I18">
-        <v>0.08666666666666667</v>
+        <v>0.08152173913043478</v>
       </c>
       <c r="J18">
-        <v>0.4133333333333333</v>
+        <v>0.4076086956521739</v>
       </c>
       <c r="K18">
-        <v>0.08666666666666667</v>
+        <v>0.08152173913043478</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006666666666666667</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06666666666666667</v>
+        <v>0.08152173913043478</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.14</v>
+        <v>0.1521739130434783</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01647286821705427</v>
+        <v>0.0187207488299532</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2180232558139535</v>
+        <v>0.219188767550702</v>
       </c>
       <c r="I19">
-        <v>0.07267441860465117</v>
+        <v>0.07020280811232449</v>
       </c>
       <c r="J19">
-        <v>0.3817829457364341</v>
+        <v>0.3790951638065523</v>
       </c>
       <c r="K19">
-        <v>0.123062015503876</v>
+        <v>0.1177847113884555</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01744186046511628</v>
+        <v>0.0187207488299532</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06686046511627906</v>
+        <v>0.07332293291731669</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1036821705426357</v>
+        <v>0.1029641185647426</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Bowling Green_B.xlsx
+++ b/team_specific_matrix/Bowling Green_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2568093385214008</v>
+        <v>0.2429577464788732</v>
       </c>
       <c r="C2">
-        <v>0.4280155642023346</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01167315175097276</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1867704280155642</v>
+        <v>0.1866197183098592</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1167315175097276</v>
+        <v>0.1056338028169014</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.009174311926605505</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03669724770642202</v>
+        <v>0.03149606299212598</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7981651376146789</v>
+        <v>0.8031496062992126</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1559633027522936</v>
+        <v>0.1574803149606299</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.575</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.375</v>
+        <v>0.3720930232558139</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05607476635514019</v>
+        <v>0.05416666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009345794392523364</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07943925233644859</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.205607476635514</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009345794392523364</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2196261682242991</v>
+        <v>0.2125</v>
       </c>
       <c r="R6">
-        <v>0.07009345794392523</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="S6">
-        <v>0.3504672897196262</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1073170731707317</v>
+        <v>0.1022222222222222</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01463414634146342</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06829268292682927</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1073170731707317</v>
+        <v>0.12</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01951219512195122</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1804878048780488</v>
+        <v>0.1688888888888889</v>
       </c>
       <c r="R7">
-        <v>0.0975609756097561</v>
+        <v>0.09777777777777778</v>
       </c>
       <c r="S7">
-        <v>0.4048780487804878</v>
+        <v>0.4088888888888889</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08078602620087336</v>
+        <v>0.08806262230919765</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01965065502183406</v>
+        <v>0.01956947162426614</v>
       </c>
       <c r="E8">
-        <v>0.002183406113537118</v>
+        <v>0.001956947162426614</v>
       </c>
       <c r="F8">
-        <v>0.08296943231441048</v>
+        <v>0.09001956947162426</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1026200873362445</v>
+        <v>0.1017612524461839</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02183406113537118</v>
+        <v>0.01956947162426614</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1703056768558952</v>
+        <v>0.1741682974559687</v>
       </c>
       <c r="R8">
-        <v>0.08296943231441048</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="S8">
-        <v>0.4366812227074236</v>
+        <v>0.4227005870841487</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.1049723756906077</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05294117647058823</v>
+        <v>0.04972375690607735</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.09392265193370165</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01764705882352941</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1705882352941177</v>
+        <v>0.1767955801104972</v>
       </c>
       <c r="R9">
-        <v>0.08823529411764706</v>
+        <v>0.08287292817679558</v>
       </c>
       <c r="S9">
-        <v>0.4705882352941176</v>
+        <v>0.4696132596685083</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08892617449664429</v>
+        <v>0.08814589665653495</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02265100671140939</v>
+        <v>0.02203647416413374</v>
       </c>
       <c r="E10">
-        <v>0.0008389261744966443</v>
+        <v>0.0007598784194528875</v>
       </c>
       <c r="F10">
-        <v>0.06963087248322147</v>
+        <v>0.06990881458966565</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1031879194630873</v>
+        <v>0.1018237082066869</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01342281879194631</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2298657718120805</v>
+        <v>0.222644376899696</v>
       </c>
       <c r="R10">
-        <v>0.08053691275167785</v>
+        <v>0.0858662613981763</v>
       </c>
       <c r="S10">
-        <v>0.3909395973154363</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1571428571428571</v>
+        <v>0.1560846560846561</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09142857142857143</v>
+        <v>0.08465608465608465</v>
       </c>
       <c r="K11">
-        <v>0.2057142857142857</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="L11">
-        <v>0.5285714285714286</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01714285714285714</v>
+        <v>0.02116402116402116</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6753926701570681</v>
+        <v>0.6807511737089202</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2303664921465969</v>
+        <v>0.215962441314554</v>
       </c>
       <c r="K12">
-        <v>0.01570680628272251</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="L12">
-        <v>0.03141361256544502</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04712041884816754</v>
+        <v>0.04225352112676056</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6585365853658537</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2195121951219512</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1219512195121951</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1753554502369668</v>
+        <v>0.1617021276595745</v>
       </c>
       <c r="I15">
-        <v>0.07582938388625593</v>
+        <v>0.07659574468085106</v>
       </c>
       <c r="J15">
-        <v>0.3317535545023697</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="K15">
-        <v>0.0947867298578199</v>
+        <v>0.08936170212765958</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01421800947867299</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03317535545023697</v>
+        <v>0.02978723404255319</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2748815165876777</v>
+        <v>0.2893617021276595</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01282051282051282</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1474358974358974</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="I16">
-        <v>0.09615384615384616</v>
+        <v>0.1028571428571429</v>
       </c>
       <c r="J16">
-        <v>0.3333333333333333</v>
+        <v>0.3314285714285714</v>
       </c>
       <c r="K16">
-        <v>0.1538461538461539</v>
+        <v>0.1542857142857143</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01923076923076923</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03846153846153846</v>
+        <v>0.04</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1987179487179487</v>
+        <v>0.1942857142857143</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01310043668122271</v>
+        <v>0.01414141414141414</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1921397379912664</v>
+        <v>0.195959595959596</v>
       </c>
       <c r="I17">
-        <v>0.07860262008733625</v>
+        <v>0.07676767676767676</v>
       </c>
       <c r="J17">
-        <v>0.4039301310043668</v>
+        <v>0.404040404040404</v>
       </c>
       <c r="K17">
-        <v>0.1200873362445415</v>
+        <v>0.1171717171717172</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01746724890829694</v>
+        <v>0.01616161616161616</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05021834061135371</v>
+        <v>0.04848484848484848</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1244541484716157</v>
+        <v>0.1272727272727273</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0108695652173913</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1793478260869565</v>
+        <v>0.1761904761904762</v>
       </c>
       <c r="I18">
-        <v>0.08152173913043478</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="J18">
-        <v>0.4076086956521739</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="K18">
-        <v>0.08152173913043478</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005434782608695652</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08152173913043478</v>
+        <v>0.08095238095238096</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1521739130434783</v>
+        <v>0.1523809523809524</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0187207488299532</v>
+        <v>0.01889433170048985</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.219188767550702</v>
+        <v>0.2232330300909727</v>
       </c>
       <c r="I19">
-        <v>0.07020280811232449</v>
+        <v>0.06508047585724283</v>
       </c>
       <c r="J19">
-        <v>0.3790951638065523</v>
+        <v>0.3785864240727781</v>
       </c>
       <c r="K19">
-        <v>0.1177847113884555</v>
+        <v>0.1147655703289013</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0187207488299532</v>
+        <v>0.01819454163750875</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07332293291731669</v>
+        <v>0.07207837648705388</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1029641185647426</v>
+        <v>0.1091672498250525</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Bowling Green_B.xlsx
+++ b/team_specific_matrix/Bowling Green_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2429577464788732</v>
+        <v>0.244299674267101</v>
       </c>
       <c r="C2">
-        <v>0.4507042253521127</v>
+        <v>0.4527687296416938</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01408450704225352</v>
+        <v>0.01302931596091205</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1866197183098592</v>
+        <v>0.1889250814332248</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1056338028169014</v>
+        <v>0.1009771986970684</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.007874015748031496</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03149606299212598</v>
+        <v>0.03623188405797102</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8031496062992126</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1574803149606299</v>
+        <v>0.1521739130434783</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04651162790697674</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5813953488372093</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3720930232558139</v>
+        <v>0.3777777777777778</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05416666666666667</v>
+        <v>0.05098039215686274</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008333333333333333</v>
+        <v>0.007843137254901961</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07083333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2083333333333333</v>
+        <v>0.2196078431372549</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.008333333333333333</v>
+        <v>0.007843137254901961</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2125</v>
+        <v>0.207843137254902</v>
       </c>
       <c r="R6">
-        <v>0.07083333333333333</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="S6">
-        <v>0.3666666666666666</v>
+        <v>0.3686274509803922</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1022222222222222</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01333333333333333</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07111111111111111</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.12</v>
+        <v>0.1228813559322034</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01777777777777778</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1688888888888889</v>
+        <v>0.1779661016949153</v>
       </c>
       <c r="R7">
-        <v>0.09777777777777778</v>
+        <v>0.09322033898305085</v>
       </c>
       <c r="S7">
-        <v>0.4088888888888889</v>
+        <v>0.4067796610169492</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08806262230919765</v>
+        <v>0.0948905109489051</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01956947162426614</v>
+        <v>0.01824817518248175</v>
       </c>
       <c r="E8">
-        <v>0.001956947162426614</v>
+        <v>0.001824817518248175</v>
       </c>
       <c r="F8">
-        <v>0.09001956947162426</v>
+        <v>0.09124087591240876</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1017612524461839</v>
+        <v>0.1021897810218978</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01956947162426614</v>
+        <v>0.01824817518248175</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1741682974559687</v>
+        <v>0.1733576642335767</v>
       </c>
       <c r="R8">
-        <v>0.0821917808219178</v>
+        <v>0.08029197080291971</v>
       </c>
       <c r="S8">
-        <v>0.4227005870841487</v>
+        <v>0.4197080291970803</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1049723756906077</v>
+        <v>0.1082474226804124</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04972375690607735</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09392265193370165</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02209944751381215</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1767955801104972</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="R9">
-        <v>0.08287292817679558</v>
+        <v>0.07731958762886598</v>
       </c>
       <c r="S9">
-        <v>0.4696132596685083</v>
+        <v>0.4639175257731959</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08814589665653495</v>
+        <v>0.08766928011404133</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02203647416413374</v>
+        <v>0.02209550962223806</v>
       </c>
       <c r="E10">
-        <v>0.0007598784194528875</v>
+        <v>0.0007127583749109052</v>
       </c>
       <c r="F10">
-        <v>0.06990881458966565</v>
+        <v>0.0684248039914469</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1018237082066869</v>
+        <v>0.09978617248752673</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01595744680851064</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.222644376899696</v>
+        <v>0.2230933713471133</v>
       </c>
       <c r="R10">
-        <v>0.0858662613981763</v>
+        <v>0.08624376336421953</v>
       </c>
       <c r="S10">
-        <v>0.3928571428571428</v>
+        <v>0.3955808980755524</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1560846560846561</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08465608465608465</v>
+        <v>0.08607594936708861</v>
       </c>
       <c r="K11">
-        <v>0.1984126984126984</v>
+        <v>0.1949367088607595</v>
       </c>
       <c r="L11">
-        <v>0.5396825396825397</v>
+        <v>0.5468354430379747</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02116402116402116</v>
+        <v>0.02025316455696203</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6807511737089202</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.215962441314554</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="K12">
-        <v>0.0187793427230047</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="L12">
-        <v>0.04225352112676056</v>
+        <v>0.04</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04225352112676056</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6444444444444445</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2222222222222222</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1333333333333333</v>
+        <v>0.1224489795918367</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1617021276595745</v>
+        <v>0.1653225806451613</v>
       </c>
       <c r="I15">
-        <v>0.07659574468085106</v>
+        <v>0.07661290322580645</v>
       </c>
       <c r="J15">
-        <v>0.3404255319148936</v>
+        <v>0.3427419354838709</v>
       </c>
       <c r="K15">
-        <v>0.08936170212765958</v>
+        <v>0.0846774193548387</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01276595744680851</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02978723404255319</v>
+        <v>0.0282258064516129</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2893617021276595</v>
+        <v>0.2862903225806452</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02285714285714286</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1314285714285714</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="I16">
-        <v>0.1028571428571429</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="J16">
-        <v>0.3314285714285714</v>
+        <v>0.3263157894736842</v>
       </c>
       <c r="K16">
-        <v>0.1542857142857143</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02285714285714286</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04</v>
+        <v>0.03684210526315789</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1942857142857143</v>
+        <v>0.1947368421052632</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01414141414141414</v>
+        <v>0.01506591337099812</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.195959595959596</v>
+        <v>0.199623352165725</v>
       </c>
       <c r="I17">
-        <v>0.07676767676767676</v>
+        <v>0.07721280602636535</v>
       </c>
       <c r="J17">
-        <v>0.404040404040404</v>
+        <v>0.4048964218455744</v>
       </c>
       <c r="K17">
-        <v>0.1171717171717172</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01616161616161616</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04848484848484848</v>
+        <v>0.04896421845574388</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1272727272727273</v>
+        <v>0.1261770244821092</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01428571428571429</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1761904761904762</v>
+        <v>0.1719457013574661</v>
       </c>
       <c r="I18">
-        <v>0.0761904761904762</v>
+        <v>0.08144796380090498</v>
       </c>
       <c r="J18">
-        <v>0.4047619047619048</v>
+        <v>0.4027149321266968</v>
       </c>
       <c r="K18">
-        <v>0.08571428571428572</v>
+        <v>0.08144796380090498</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009523809523809525</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="O18">
-        <v>0.08095238095238096</v>
+        <v>0.08144796380090498</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1523809523809524</v>
+        <v>0.1493212669683258</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01889433170048985</v>
+        <v>0.01839684625492773</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2232330300909727</v>
+        <v>0.2240473061760841</v>
       </c>
       <c r="I19">
-        <v>0.06508047585724283</v>
+        <v>0.06504599211563732</v>
       </c>
       <c r="J19">
-        <v>0.3785864240727781</v>
+        <v>0.3777923784494087</v>
       </c>
       <c r="K19">
-        <v>0.1147655703289013</v>
+        <v>0.1136662286465177</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01819454163750875</v>
+        <v>0.019053876478318</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07207837648705388</v>
+        <v>0.07161629434954007</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1091672498250525</v>
+        <v>0.1103810775295664</v>
       </c>
     </row>
   </sheetData>
